--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.1669712519578</v>
+        <v>520.9671780248589</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.9349482528966</v>
+        <v>712.8102764234166</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.6695777529977</v>
+        <v>644.7806640770713</v>
       </c>
       <c r="AD2" t="n">
-        <v>469166.9712519578</v>
+        <v>520967.1780248588</v>
       </c>
       <c r="AE2" t="n">
-        <v>641934.9482528965</v>
+        <v>712810.2764234166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602869955551235e-06</v>
+        <v>3.752464989757253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>580669.5777529977</v>
+        <v>644780.6640770712</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.1652167575808</v>
+        <v>209.9800687980104</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.9829743635509</v>
+        <v>287.3039937961435</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.9340729506927</v>
+        <v>259.8841038620119</v>
       </c>
       <c r="AD3" t="n">
-        <v>184165.2167575808</v>
+        <v>209980.0687980104</v>
       </c>
       <c r="AE3" t="n">
-        <v>251982.974363551</v>
+        <v>287303.9937961434</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.745620426750459e-06</v>
+        <v>6.841592092635547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.404166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>227934.0729506927</v>
+        <v>259884.1038620119</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.7177640292211</v>
+        <v>172.6178674156712</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.7457174756173</v>
+        <v>236.1833815608591</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.5868279481854</v>
+        <v>213.6423711102169</v>
       </c>
       <c r="AD4" t="n">
-        <v>146717.7640292211</v>
+        <v>172617.8674156712</v>
       </c>
       <c r="AE4" t="n">
-        <v>200745.7174756173</v>
+        <v>236183.3815608591</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.509617173596205e-06</v>
+        <v>7.94301901514192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.516666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>181586.8279481854</v>
+        <v>213642.3711102169</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.8955661363291</v>
+        <v>152.1623912358469</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.5700647600094</v>
+        <v>208.195296619719</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.9549568250789</v>
+        <v>188.3254297143264</v>
       </c>
       <c r="AD5" t="n">
-        <v>134895.5661363291</v>
+        <v>152162.3912358469</v>
       </c>
       <c r="AE5" t="n">
-        <v>184570.0647600094</v>
+        <v>208195.296619719</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.916926495191265e-06</v>
+        <v>8.530222369665084e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.1375</v>
       </c>
       <c r="AH5" t="n">
-        <v>166954.9568250788</v>
+        <v>188325.4297143264</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.7789536390586</v>
+        <v>145.5937161709371</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.8868486433782</v>
+        <v>199.2077456064224</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.2457178255362</v>
+        <v>180.1956379556289</v>
       </c>
       <c r="AD6" t="n">
-        <v>119778.9536390586</v>
+        <v>145593.7161709371</v>
       </c>
       <c r="AE6" t="n">
-        <v>163886.8486433782</v>
+        <v>199207.7456064224</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.151216885764927e-06</v>
+        <v>8.867990488348534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>148245.7178255362</v>
+        <v>180195.6379556289</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.9658050063788</v>
+        <v>140.7805675382573</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.3012863430176</v>
+        <v>192.6221833060617</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.2886723482251</v>
+        <v>174.2385924783179</v>
       </c>
       <c r="AD7" t="n">
-        <v>114965.8050063788</v>
+        <v>140780.5675382573</v>
       </c>
       <c r="AE7" t="n">
-        <v>157301.2863430176</v>
+        <v>192622.1833060617</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.332842998009143e-06</v>
+        <v>9.129834391063912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>142288.6723482251</v>
+        <v>174238.5924783178</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.4512273336745</v>
+        <v>137.265989865553</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.4924861190021</v>
+        <v>187.8133830820463</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.9388172683946</v>
+        <v>169.8887373984873</v>
       </c>
       <c r="AD8" t="n">
-        <v>111451.2273336745</v>
+        <v>137265.989865553</v>
       </c>
       <c r="AE8" t="n">
-        <v>152492.4861190021</v>
+        <v>187813.3830820463</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.453927072838619e-06</v>
+        <v>9.304396992874166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>137938.8172683946</v>
+        <v>169888.7373984873</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.5508783839695</v>
+        <v>134.365640915848</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.5241007316527</v>
+        <v>183.8449976946968</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.3491690127487</v>
+        <v>166.2990891428414</v>
       </c>
       <c r="AD9" t="n">
-        <v>108550.8783839695</v>
+        <v>134365.6409158481</v>
       </c>
       <c r="AE9" t="n">
-        <v>148524.1007316527</v>
+        <v>183844.9976946968</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.545104840029491e-06</v>
+        <v>9.435844735201163e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.64375</v>
       </c>
       <c r="AH9" t="n">
-        <v>134349.1690127487</v>
+        <v>166299.0891428414</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.6964083081667</v>
+        <v>123.0484847537051</v>
       </c>
       <c r="AB10" t="n">
-        <v>144.6184888436091</v>
+        <v>168.360365355968</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.8163032417381</v>
+        <v>152.2922883816979</v>
       </c>
       <c r="AD10" t="n">
-        <v>105696.4083081667</v>
+        <v>123048.4847537051</v>
       </c>
       <c r="AE10" t="n">
-        <v>144618.4888436091</v>
+        <v>168360.365355968</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.628988385845091e-06</v>
+        <v>9.556776658141999e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.585416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>130816.3032417381</v>
+        <v>152292.2883816979</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.2756209241201</v>
+        <v>121.6276973696585</v>
       </c>
       <c r="AB11" t="n">
-        <v>142.674504864042</v>
+        <v>166.4163813764008</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.0578503647816</v>
+        <v>150.5338355047414</v>
       </c>
       <c r="AD11" t="n">
-        <v>104275.6209241201</v>
+        <v>121627.6973696585</v>
       </c>
       <c r="AE11" t="n">
-        <v>142674.504864042</v>
+        <v>166416.3813764008</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.65247577867346e-06</v>
+        <v>9.590637596565434e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.568750000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>129057.8503647816</v>
+        <v>150533.8355047414</v>
       </c>
     </row>
     <row r="12">
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>104.0220529570399</v>
+        <v>121.3741294025783</v>
       </c>
       <c r="AB12" t="n">
-        <v>142.3275619848538</v>
+        <v>166.0694384972126</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.7440192270457</v>
+        <v>150.2200043670055</v>
       </c>
       <c r="AD12" t="n">
-        <v>104022.0529570399</v>
+        <v>121374.1294025783</v>
       </c>
       <c r="AE12" t="n">
-        <v>142327.5619848538</v>
+        <v>166069.4384972127</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.675379633791807e-06</v>
+        <v>9.623657269437975e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.552083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>128744.0192270457</v>
+        <v>150220.0043670055</v>
       </c>
     </row>
   </sheetData>
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.4602164028473</v>
+        <v>347.3767419772702</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.9441440360392</v>
+        <v>475.2961835535612</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.0561415175292</v>
+        <v>429.9345828775919</v>
       </c>
       <c r="AD2" t="n">
-        <v>305460.2164028473</v>
+        <v>347376.7419772702</v>
       </c>
       <c r="AE2" t="n">
-        <v>417944.1440360392</v>
+        <v>475296.1835535612</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389559866274277e-06</v>
+        <v>4.962188132532702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>378056.1415175292</v>
+        <v>429934.5828775919</v>
       </c>
     </row>
     <row r="3">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8478424962769</v>
+        <v>172.1001131612856</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9236965728999</v>
+        <v>235.4749673483035</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7478209702187</v>
+        <v>213.0015669558418</v>
       </c>
       <c r="AD3" t="n">
-        <v>146847.8424962769</v>
+        <v>172100.1131612856</v>
       </c>
       <c r="AE3" t="n">
-        <v>200923.6965728999</v>
+        <v>235474.9673483035</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.354478363998724e-06</v>
+        <v>7.838754895024946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.870833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>181747.8209702187</v>
+        <v>213001.5669558418</v>
       </c>
     </row>
     <row r="4">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.1930473494794</v>
+        <v>144.0279839680363</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.0311387447007</v>
+        <v>197.0654417311848</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.4218511171922</v>
+        <v>178.2577925555009</v>
       </c>
       <c r="AD4" t="n">
-        <v>127193.0473494794</v>
+        <v>144027.9839680363</v>
       </c>
       <c r="AE4" t="n">
-        <v>174031.1387447007</v>
+        <v>197065.4417311848</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.048538284969134e-06</v>
+        <v>8.854832509518173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.197916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>157421.8511171922</v>
+        <v>178257.7925555009</v>
       </c>
     </row>
     <row r="5">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.8279735758921</v>
+        <v>134.9949033863292</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.2714787147037</v>
+        <v>184.7059823679096</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.9297796935583</v>
+        <v>167.0779026472427</v>
       </c>
       <c r="AD5" t="n">
-        <v>109827.9735758921</v>
+        <v>134994.9033863292</v>
       </c>
       <c r="AE5" t="n">
-        <v>150271.4787147037</v>
+        <v>184705.9823679096</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.415262705051345e-06</v>
+        <v>9.391703264729858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>135929.7796935583</v>
+        <v>167077.9026472427</v>
       </c>
     </row>
     <row r="6">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.3953886138334</v>
+        <v>129.5623184242706</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.8383763008852</v>
+        <v>177.2728799540911</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.2060821416875</v>
+        <v>160.3542050953718</v>
       </c>
       <c r="AD6" t="n">
-        <v>104395.3886138334</v>
+        <v>129562.3184242705</v>
       </c>
       <c r="AE6" t="n">
-        <v>142838.3763008852</v>
+        <v>177272.8799540911</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.64239038086358e-06</v>
+        <v>9.72420963781364e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>129206.0821416875</v>
+        <v>160354.2050953718</v>
       </c>
     </row>
     <row r="7">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.426222429772</v>
+        <v>125.5931522402091</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.4075880206015</v>
+        <v>171.8420916738074</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.2936006727131</v>
+        <v>155.4417236263975</v>
       </c>
       <c r="AD7" t="n">
-        <v>100426.222429772</v>
+        <v>125593.1522402091</v>
       </c>
       <c r="AE7" t="n">
-        <v>137407.5880206015</v>
+        <v>171842.0916738074</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.777610578556445e-06</v>
+        <v>9.922166920393751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.639583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>124293.6006727131</v>
+        <v>155441.7236263975</v>
       </c>
     </row>
     <row r="8">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.71033246052396</v>
+        <v>114.6305204251014</v>
       </c>
       <c r="AB8" t="n">
-        <v>133.691587548069</v>
+        <v>156.8425351872023</v>
       </c>
       <c r="AC8" t="n">
-        <v>120.9322500698385</v>
+        <v>141.8737037588594</v>
       </c>
       <c r="AD8" t="n">
-        <v>97710.33246052396</v>
+        <v>114630.5204251014</v>
       </c>
       <c r="AE8" t="n">
-        <v>133691.587548069</v>
+        <v>156842.5351872023</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.871630872264766e-06</v>
+        <v>1.005980909343774e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.575</v>
       </c>
       <c r="AH8" t="n">
-        <v>120932.2500698385</v>
+        <v>141873.7037588594</v>
       </c>
     </row>
     <row r="9">
@@ -5551,28 +5551,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.33964804730128</v>
+        <v>114.2598360118788</v>
       </c>
       <c r="AB9" t="n">
-        <v>133.1844007804559</v>
+        <v>156.3353484195892</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.4734684954851</v>
+        <v>141.414922184506</v>
       </c>
       <c r="AD9" t="n">
-        <v>97339.64804730128</v>
+        <v>114259.8360118788</v>
       </c>
       <c r="AE9" t="n">
-        <v>133184.4007804558</v>
+        <v>156335.3484195892</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.894720928344016e-06</v>
+        <v>1.009361206691403e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.560416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>120473.4684954851</v>
+        <v>141414.922184506</v>
       </c>
     </row>
   </sheetData>
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3018213929972</v>
+        <v>138.6036875957164</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7610387871854</v>
+        <v>189.6436801315137</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7045466643883</v>
+        <v>171.5443534663923</v>
       </c>
       <c r="AD2" t="n">
-        <v>115301.8213929972</v>
+        <v>138603.6875957164</v>
       </c>
       <c r="AE2" t="n">
-        <v>157761.0387871854</v>
+        <v>189643.6801315137</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.909141982173501e-06</v>
+        <v>9.142172029042863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>142704.5466643883</v>
+        <v>171544.3534663923</v>
       </c>
     </row>
     <row r="3">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.08316338898081</v>
+        <v>105.2996887371284</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.3098054023519</v>
+        <v>144.0756796244826</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.5911152025822</v>
+        <v>130.3252989726473</v>
       </c>
       <c r="AD3" t="n">
-        <v>82083.16338898081</v>
+        <v>105299.6887371284</v>
       </c>
       <c r="AE3" t="n">
-        <v>112309.8054023519</v>
+        <v>144075.6796244826</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.309047861278896e-06</v>
+        <v>1.13079992184824e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>101591.1152025822</v>
+        <v>130325.2989726473</v>
       </c>
     </row>
     <row r="4">
@@ -6060,28 +6060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.62431308670828</v>
+        <v>103.8408384348559</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3137420588506</v>
+        <v>142.0796162809813</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.78555334309148</v>
+        <v>128.5197371131566</v>
       </c>
       <c r="AD4" t="n">
-        <v>80624.31308670828</v>
+        <v>103840.8384348559</v>
       </c>
       <c r="AE4" t="n">
-        <v>110313.7420588506</v>
+        <v>142079.6162809813</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422717591628486e-06</v>
+        <v>1.148386032191939e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.727083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>99785.55334309148</v>
+        <v>128519.7371131566</v>
       </c>
     </row>
   </sheetData>
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.6945378647956</v>
+        <v>193.6950590572019</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.2376001660699</v>
+        <v>265.022125024856</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1229941152057</v>
+        <v>239.7287853734498</v>
       </c>
       <c r="AD2" t="n">
-        <v>161694.5378647956</v>
+        <v>193695.0590572019</v>
       </c>
       <c r="AE2" t="n">
-        <v>221237.6001660699</v>
+        <v>265022.125024856</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.894295593416748e-06</v>
+        <v>7.396719410090409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.858333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>200122.9941152057</v>
+        <v>239728.7853734498</v>
       </c>
     </row>
     <row r="3">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.6203788611249</v>
+        <v>124.6633993931648</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.6191943506412</v>
+        <v>170.5699628106814</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4351870302057</v>
+        <v>154.2910049565237</v>
       </c>
       <c r="AD3" t="n">
-        <v>108620.3788611249</v>
+        <v>124663.3993931648</v>
       </c>
       <c r="AE3" t="n">
-        <v>148619.1943506412</v>
+        <v>170569.9628106814</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527069979173126e-06</v>
+        <v>9.864321491106417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.141666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134435.1870302057</v>
+        <v>154291.0049565237</v>
       </c>
     </row>
     <row r="4">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.46519806952233</v>
+        <v>113.4442537501841</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.410230924649</v>
+        <v>155.2194327881892</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.7275702890707</v>
+        <v>140.4055079747691</v>
       </c>
       <c r="AD4" t="n">
-        <v>89465.19806952233</v>
+        <v>113444.2537501841</v>
       </c>
       <c r="AE4" t="n">
-        <v>122410.230924649</v>
+        <v>155219.4327881892</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.108327994349151e-06</v>
+        <v>1.074277322354902e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.720833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>110727.5702890707</v>
+        <v>140405.5079747691</v>
       </c>
     </row>
     <row r="5">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.24117691775086</v>
+        <v>102.3694487958115</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.9989829510227</v>
+        <v>140.0663960637121</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.7373256308205</v>
+        <v>126.6986558078507</v>
       </c>
       <c r="AD5" t="n">
-        <v>86241.17691775087</v>
+        <v>102369.4487958114</v>
       </c>
       <c r="AE5" t="n">
-        <v>117998.9829510227</v>
+        <v>140066.3960637121</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.27120267653955e-06</v>
+        <v>1.098892474835486e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.616666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>106737.3256308205</v>
+        <v>126698.6558078507</v>
       </c>
     </row>
     <row r="6">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.5508771251088</v>
+        <v>102.6791490031694</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.4227284377385</v>
+        <v>140.4901415504279</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.1206294430147</v>
+        <v>127.081959620045</v>
       </c>
       <c r="AD6" t="n">
-        <v>86550.8771251088</v>
+        <v>102679.1490031694</v>
       </c>
       <c r="AE6" t="n">
-        <v>118422.7284377385</v>
+        <v>140490.1415504279</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.270719368877263e-06</v>
+        <v>1.098819432839994e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.616666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>107120.6294430147</v>
+        <v>127081.959620045</v>
       </c>
     </row>
   </sheetData>
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.40294007632585</v>
+        <v>114.9087827871568</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.4297791423859</v>
+        <v>157.2232660270353</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.3634984663795</v>
+        <v>142.218098181698</v>
       </c>
       <c r="AD2" t="n">
-        <v>92402.94007632585</v>
+        <v>114908.7827871568</v>
       </c>
       <c r="AE2" t="n">
-        <v>126429.7791423859</v>
+        <v>157223.2660270353</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81766598725299e-06</v>
+        <v>1.077523921502011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>114363.4984663795</v>
+        <v>142218.098181698</v>
       </c>
     </row>
     <row r="3">
@@ -7184,28 +7184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.18385670060601</v>
+        <v>98.77495075745756</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.2381137322786</v>
+        <v>135.1482452695772</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.28977445680771</v>
+        <v>122.2498864228385</v>
       </c>
       <c r="AD3" t="n">
-        <v>76183.85670060602</v>
+        <v>98774.95075745755</v>
       </c>
       <c r="AE3" t="n">
-        <v>104238.1137322786</v>
+        <v>135148.2452695772</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.449919201483501e-06</v>
+        <v>1.17745078269669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.891666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94289.7744568077</v>
+        <v>122249.8864228385</v>
       </c>
     </row>
   </sheetData>
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.584369901298</v>
+        <v>374.9552831634996</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.0566074858178</v>
+        <v>513.0303602839285</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.6266435433304</v>
+        <v>464.0674627410626</v>
       </c>
       <c r="AD2" t="n">
-        <v>332584.369901298</v>
+        <v>374955.2831634996</v>
       </c>
       <c r="AE2" t="n">
-        <v>455056.6074858178</v>
+        <v>513030.3602839285</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.193997743538428e-06</v>
+        <v>4.656485517109303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.75625</v>
       </c>
       <c r="AH2" t="n">
-        <v>411626.6435433304</v>
+        <v>464067.4627410626</v>
       </c>
     </row>
     <row r="3">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.0571334876815</v>
+        <v>186.7831823882991</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.4195224419207</v>
+        <v>255.5649904359902</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.4328171422693</v>
+        <v>231.1742264365706</v>
       </c>
       <c r="AD3" t="n">
-        <v>153057.1334876815</v>
+        <v>186783.1823882991</v>
       </c>
       <c r="AE3" t="n">
-        <v>209419.5224419207</v>
+        <v>255564.9904359902</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.206024885504267e-06</v>
+        <v>7.589792300293019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.985416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>189432.8171422693</v>
+        <v>231174.2264365706</v>
       </c>
     </row>
     <row r="4">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.931350326655</v>
+        <v>148.8798051400865</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.5142939172432</v>
+        <v>203.7039175060239</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.2862630592348</v>
+        <v>184.2627015195508</v>
       </c>
       <c r="AD4" t="n">
-        <v>131931.350326655</v>
+        <v>148879.8051400865</v>
       </c>
       <c r="AE4" t="n">
-        <v>180514.2939172432</v>
+        <v>203703.917506024</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.904020178119636e-06</v>
+        <v>8.60739006711963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.277083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163286.2630592348</v>
+        <v>184262.7015195508</v>
       </c>
     </row>
     <row r="5">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.6690729961474</v>
+        <v>139.0062800988964</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.5270403988411</v>
+        <v>190.194524955492</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.6837579467905</v>
+        <v>172.0426264334858</v>
       </c>
       <c r="AD5" t="n">
-        <v>113669.0729961474</v>
+        <v>139006.2800988964</v>
       </c>
       <c r="AE5" t="n">
-        <v>155527.0403988411</v>
+        <v>190194.524955492</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.290332978810765e-06</v>
+        <v>9.170590202477062e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.954166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>140683.7579467905</v>
+        <v>172042.6264334858</v>
       </c>
     </row>
     <row r="6">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.4038798906636</v>
+        <v>133.7410869934127</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.3229709079958</v>
+        <v>182.9904554646467</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.1672347371741</v>
+        <v>165.5261032238695</v>
       </c>
       <c r="AD6" t="n">
-        <v>108403.8798906636</v>
+        <v>133741.0869934127</v>
       </c>
       <c r="AE6" t="n">
-        <v>148322.9709079958</v>
+        <v>182990.4554646467</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.50689547799805e-06</v>
+        <v>9.486313700733959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.787500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>134167.2347371741</v>
+        <v>165526.1032238695</v>
       </c>
     </row>
     <row r="7">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.187531599521</v>
+        <v>129.52473870227</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.5539771638987</v>
+        <v>177.2214617205497</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.9488256591783</v>
+        <v>160.3076941458737</v>
       </c>
       <c r="AD7" t="n">
-        <v>104187.531599521</v>
+        <v>129524.73870227</v>
       </c>
       <c r="AE7" t="n">
-        <v>142553.9771638987</v>
+        <v>177221.4617205496</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.664980120015288e-06</v>
+        <v>9.716783132817895e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.675</v>
       </c>
       <c r="AH7" t="n">
-        <v>128948.8256591783</v>
+        <v>160307.6941458737</v>
       </c>
     </row>
     <row r="8">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.3360482462503</v>
+        <v>117.3697544057023</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.2842077245029</v>
+        <v>160.5904759659329</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.1819956189089</v>
+        <v>145.2639463299371</v>
       </c>
       <c r="AD8" t="n">
-        <v>100336.0482462503</v>
+        <v>117369.7544057023</v>
       </c>
       <c r="AE8" t="n">
-        <v>137284.2077245029</v>
+        <v>160590.4759659329</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.793751053578998e-06</v>
+        <v>9.904516511270373e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.585416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>124181.9956189089</v>
+        <v>145263.9463299371</v>
       </c>
     </row>
     <row r="9">
@@ -8223,28 +8223,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.89940374157486</v>
+        <v>115.9331099010269</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.3185273329246</v>
+        <v>158.6247955743546</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.4039170050524</v>
+        <v>143.4858677160806</v>
       </c>
       <c r="AD9" t="n">
-        <v>98899.40374157486</v>
+        <v>115933.1099010269</v>
       </c>
       <c r="AE9" t="n">
-        <v>135318.5273329246</v>
+        <v>158624.7955743546</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.837721616259289e-06</v>
+        <v>9.96862059171756e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.55625</v>
       </c>
       <c r="AH9" t="n">
-        <v>122403.9170050524</v>
+        <v>143485.8677160806</v>
       </c>
     </row>
     <row r="10">
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.05343017159993</v>
+        <v>116.087136331052</v>
       </c>
       <c r="AB10" t="n">
-        <v>135.5292730896513</v>
+        <v>158.8355413310812</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.5945494825407</v>
+        <v>143.6765001935689</v>
       </c>
       <c r="AD10" t="n">
-        <v>99053.43017159993</v>
+        <v>116087.136331052</v>
       </c>
       <c r="AE10" t="n">
-        <v>135529.2730896513</v>
+        <v>158835.5413310812</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.833982622834094e-06</v>
+        <v>9.963169564468648e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.558333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>122594.5494825407</v>
+        <v>143676.5001935689</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.05036016660803</v>
+        <v>96.92117363724647</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2649225863254</v>
+        <v>132.6118256308311</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5505159395238</v>
+        <v>119.9555391145261</v>
       </c>
       <c r="AD2" t="n">
-        <v>82050.36016660804</v>
+        <v>96921.17363724647</v>
       </c>
       <c r="AE2" t="n">
-        <v>112264.9225863254</v>
+        <v>132611.8256308311</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.322519412938826e-06</v>
+        <v>1.1732396142335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.091666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101550.5159395238</v>
+        <v>119955.5391145262</v>
       </c>
     </row>
     <row r="3">
@@ -8732,28 +8732,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.60448856449916</v>
+        <v>96.4753020351376</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.6548613898536</v>
+        <v>132.0017644343592</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9986781274168</v>
+        <v>119.4037013024191</v>
       </c>
       <c r="AD3" t="n">
-        <v>81604.48856449916</v>
+        <v>96475.3020351376</v>
       </c>
       <c r="AE3" t="n">
-        <v>111654.8613898536</v>
+        <v>132001.7644343592</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.39232417378667e-06</v>
+        <v>1.184423976618948e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.04375</v>
       </c>
       <c r="AH3" t="n">
-        <v>100998.6781274168</v>
+        <v>119403.7013024191</v>
       </c>
     </row>
   </sheetData>
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.991850025601</v>
+        <v>259.9872324263249</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.6343104434553</v>
+        <v>355.7260012328937</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.0376323942162</v>
+        <v>321.7760109398039</v>
       </c>
       <c r="AD2" t="n">
-        <v>218991.850025601</v>
+        <v>259987.2324263249</v>
       </c>
       <c r="AE2" t="n">
-        <v>299634.3104434552</v>
+        <v>355726.0012328937</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.087977748817334e-06</v>
+        <v>6.070005950348074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>271037.6323942163</v>
+        <v>321776.010939804</v>
       </c>
     </row>
     <row r="3">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.3730569375991</v>
+        <v>152.0726954035175</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.2774358046285</v>
+        <v>208.0725708248251</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.6446419314007</v>
+        <v>188.2144166970504</v>
       </c>
       <c r="AD3" t="n">
-        <v>127373.0569375991</v>
+        <v>152072.6954035175</v>
       </c>
       <c r="AE3" t="n">
-        <v>174277.4358046285</v>
+        <v>208072.5708248251</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.888236634968758e-06</v>
+        <v>8.743108110521897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.502083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>157644.6419314008</v>
+        <v>188214.4166970504</v>
       </c>
     </row>
     <row r="4">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.265463802759</v>
+        <v>128.8797614141057</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.6606074424951</v>
+        <v>176.338975340494</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.045279293642</v>
+        <v>159.5094310273528</v>
       </c>
       <c r="AD4" t="n">
-        <v>104265.463802759</v>
+        <v>128879.7614141057</v>
       </c>
       <c r="AE4" t="n">
-        <v>142660.6074424951</v>
+        <v>176338.975340494</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.528542913529093e-06</v>
+        <v>9.693862532321498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.962499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>129045.2792936419</v>
+        <v>159509.4310273528</v>
       </c>
     </row>
     <row r="5">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.06425019063673</v>
+        <v>121.6785478019835</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.8075892832716</v>
+        <v>166.4859571812705</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.1326193587338</v>
+        <v>150.5967710924447</v>
       </c>
       <c r="AD5" t="n">
-        <v>97064.25019063673</v>
+        <v>121678.5478019835</v>
       </c>
       <c r="AE5" t="n">
-        <v>132807.5892832716</v>
+        <v>166485.9571812705</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.864089525751825e-06</v>
+        <v>1.019209663680026e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>120132.6193587338</v>
+        <v>150596.7710924447</v>
       </c>
     </row>
     <row r="6">
@@ -9453,28 +9453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.51404968432681</v>
+        <v>109.065816182844</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.5818042098627</v>
+        <v>149.2286613455247</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.5010144747848</v>
+        <v>134.9864873504901</v>
       </c>
       <c r="AD6" t="n">
-        <v>92514.0496843268</v>
+        <v>109065.816182844</v>
       </c>
       <c r="AE6" t="n">
-        <v>126581.8042098627</v>
+        <v>149228.6613455247</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.046167877425975e-06</v>
+        <v>1.046245443862817e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.597916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>114501.0144747848</v>
+        <v>134986.4873504901</v>
       </c>
     </row>
     <row r="7">
@@ -9559,28 +9559,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.61638998193961</v>
+        <v>108.1681564804568</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.3535866031061</v>
+        <v>148.000443738768</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.3900162326024</v>
+        <v>133.8754891083076</v>
       </c>
       <c r="AD7" t="n">
-        <v>91616.3899819396</v>
+        <v>108168.1564804568</v>
       </c>
       <c r="AE7" t="n">
-        <v>125353.5866031061</v>
+        <v>148000.4437387681</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.092348296253663e-06</v>
+        <v>1.053102511936505e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.566666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>113390.0162326024</v>
+        <v>133875.4891083076</v>
       </c>
     </row>
   </sheetData>
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1242043977788</v>
+        <v>312.8313941514407</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.964097612764</v>
+        <v>428.0297146250761</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5598047879821</v>
+        <v>387.1791594047356</v>
       </c>
       <c r="AD2" t="n">
-        <v>271124.2043977788</v>
+        <v>312831.3941514407</v>
       </c>
       <c r="AE2" t="n">
-        <v>370964.097612764</v>
+        <v>428029.714625076</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609144376919213e-06</v>
+        <v>5.307039205178689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.793750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>335559.8047879821</v>
+        <v>387179.1594047355</v>
       </c>
     </row>
     <row r="3">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8115254272803</v>
+        <v>164.8870437922201</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.296297138703</v>
+        <v>225.6057276193912</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.0392470258785</v>
+        <v>204.0742336150888</v>
       </c>
       <c r="AD3" t="n">
-        <v>139811.5254272803</v>
+        <v>164887.0437922201</v>
       </c>
       <c r="AE3" t="n">
-        <v>191296.297138703</v>
+        <v>225605.7276193912</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.533919812039404e-06</v>
+        <v>8.137310767788548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.735416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>173039.2470258785</v>
+        <v>204074.2336150888</v>
       </c>
     </row>
     <row r="4">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.3066308397628</v>
+        <v>139.0237325916071</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.3453281026278</v>
+        <v>190.2184042259683</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.3741248592025</v>
+        <v>172.0642266999026</v>
       </c>
       <c r="AD4" t="n">
-        <v>122306.6308397628</v>
+        <v>139023.7325916071</v>
       </c>
       <c r="AE4" t="n">
-        <v>167345.3281026278</v>
+        <v>190218.4042259683</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.199684308752657e-06</v>
+        <v>9.116279164860344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.118749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>151374.1248592025</v>
+        <v>172064.2266999026</v>
       </c>
     </row>
     <row r="5">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.7875434235548</v>
+        <v>130.777720933923</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.7431839290806</v>
+        <v>178.9358472875712</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.9290976032629</v>
+        <v>161.8584611605344</v>
       </c>
       <c r="AD5" t="n">
-        <v>105787.5434235548</v>
+        <v>130777.720933923</v>
       </c>
       <c r="AE5" t="n">
-        <v>144743.1839290806</v>
+        <v>178935.8472875712</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.550391373154008e-06</v>
+        <v>9.6319737300913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.845833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>130929.0976032629</v>
+        <v>161858.4611605344</v>
       </c>
     </row>
     <row r="6">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.2827018101455</v>
+        <v>125.2728793205136</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.2112167771457</v>
+        <v>171.4038801356362</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.1159708251239</v>
+        <v>155.0453343823954</v>
       </c>
       <c r="AD6" t="n">
-        <v>100282.7018101455</v>
+        <v>125272.8793205136</v>
       </c>
       <c r="AE6" t="n">
-        <v>137211.2167771457</v>
+        <v>171403.8801356362</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.780438144329526e-06</v>
+        <v>9.970244274617252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.681249999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>124115.9708251239</v>
+        <v>155045.3343823954</v>
       </c>
     </row>
     <row r="7">
@@ -10386,28 +10386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.37925121806047</v>
+        <v>113.1816043159253</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.8703434689714</v>
+        <v>154.8600642449611</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.2848229695173</v>
+        <v>140.0804370609297</v>
       </c>
       <c r="AD7" t="n">
-        <v>96379.25121806047</v>
+        <v>113181.6043159253</v>
       </c>
       <c r="AE7" t="n">
-        <v>131870.3434689714</v>
+        <v>154860.0642449611</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.923493719252581e-06</v>
+        <v>1.01805992688622e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>119284.8229695173</v>
+        <v>140080.4370609297</v>
       </c>
     </row>
     <row r="8">
@@ -10492,28 +10492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.21059224963861</v>
+        <v>112.0129453475034</v>
       </c>
       <c r="AB8" t="n">
-        <v>130.2713327107825</v>
+        <v>153.2610534867722</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.8384195538638</v>
+        <v>138.6340336452761</v>
       </c>
       <c r="AD8" t="n">
-        <v>95210.5922496386</v>
+        <v>112012.9453475034</v>
       </c>
       <c r="AE8" t="n">
-        <v>130271.3327107825</v>
+        <v>153261.0534867722</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.96203797958861e-06</v>
+        <v>1.023727638658741e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.558333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>117838.4195538638</v>
+        <v>138634.0336452761</v>
       </c>
     </row>
   </sheetData>
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.8004937780433</v>
+        <v>468.7105593282402</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.5990205791271</v>
+        <v>641.3104653233933</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.9965877379153</v>
+        <v>580.1046945978189</v>
       </c>
       <c r="AD2" t="n">
-        <v>425800.4937780433</v>
+        <v>468710.5593282402</v>
       </c>
       <c r="AE2" t="n">
-        <v>582599.0205791271</v>
+        <v>641310.4653233932</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781021568494438e-06</v>
+        <v>4.023505545741359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>526996.5877379153</v>
+        <v>580104.6945978189</v>
       </c>
     </row>
     <row r="3">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7643273749001</v>
+        <v>202.4250616538667</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.8567510059762</v>
+        <v>276.9668997181394</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.7742821381179</v>
+        <v>250.5335675346067</v>
       </c>
       <c r="AD3" t="n">
-        <v>176764.3273749001</v>
+        <v>202425.0616538667</v>
       </c>
       <c r="AE3" t="n">
-        <v>241856.7510059762</v>
+        <v>276966.8997181394</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.885904327136008e-06</v>
+        <v>7.068792050698097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.270833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>218774.2821381179</v>
+        <v>250533.5675346067</v>
       </c>
     </row>
     <row r="4">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.4573120920847</v>
+        <v>167.0327055164797</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.5481350604705</v>
+        <v>228.5415166504362</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.0761726968676</v>
+        <v>206.7298350614176</v>
       </c>
       <c r="AD4" t="n">
-        <v>141457.3120920847</v>
+        <v>167032.7055164797</v>
       </c>
       <c r="AE4" t="n">
-        <v>193548.1350604706</v>
+        <v>228541.5166504362</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.643950339487363e-06</v>
+        <v>8.16551218015541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.427083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>175076.1726968676</v>
+        <v>206729.8350614176</v>
       </c>
     </row>
     <row r="5">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.3718381884145</v>
+        <v>148.5359181136237</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.7487447257695</v>
+        <v>203.2333961051929</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.5937768081401</v>
+        <v>183.837086020834</v>
       </c>
       <c r="AD5" t="n">
-        <v>131371.8381884145</v>
+        <v>148535.9181136237</v>
       </c>
       <c r="AE5" t="n">
-        <v>179748.7447257695</v>
+        <v>203233.3961051929</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.009518212757096e-06</v>
+        <v>8.694405728522216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.097916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>162593.7768081401</v>
+        <v>183837.086020834</v>
       </c>
     </row>
     <row r="6">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.8349840476848</v>
+        <v>141.4956288181004</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.4905354528049</v>
+        <v>193.6005616954198</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.3644211920963</v>
+        <v>175.1235958073586</v>
       </c>
       <c r="AD6" t="n">
-        <v>115834.9840476848</v>
+        <v>141495.6288181004</v>
       </c>
       <c r="AE6" t="n">
-        <v>158490.5354528049</v>
+        <v>193600.5616954198</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.276268060750375e-06</v>
+        <v>9.080332074756078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.881250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>143364.4211920963</v>
+        <v>175123.5958073586</v>
       </c>
     </row>
     <row r="7">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.6162293342114</v>
+        <v>137.276874104627</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.7182491355111</v>
+        <v>187.828275378126</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.1430337794685</v>
+        <v>169.9022083947307</v>
       </c>
       <c r="AD7" t="n">
-        <v>111616.2293342114</v>
+        <v>137276.8741046269</v>
       </c>
       <c r="AE7" t="n">
-        <v>152718.2491355111</v>
+        <v>187828.275378126</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.431406478409091e-06</v>
+        <v>9.304782072152289e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.7625</v>
       </c>
       <c r="AH7" t="n">
-        <v>138143.0337794684</v>
+        <v>169902.2083947307</v>
       </c>
     </row>
     <row r="8">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.1219858551387</v>
+        <v>133.7826306255543</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.9372710523037</v>
+        <v>183.0472972949186</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.818345534376</v>
+        <v>165.5775201496382</v>
       </c>
       <c r="AD8" t="n">
-        <v>108121.9858551387</v>
+        <v>133782.6306255543</v>
       </c>
       <c r="AE8" t="n">
-        <v>147937.2710523037</v>
+        <v>183047.2972949186</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549782237854842e-06</v>
+        <v>9.476044866374042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.677083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>133818.345534376</v>
+        <v>165577.5201496382</v>
       </c>
     </row>
     <row r="9">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.846750255114</v>
+        <v>122.0960815263437</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.4559492111552</v>
+        <v>167.0572452432278</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.7647147601706</v>
+        <v>151.1135362235767</v>
       </c>
       <c r="AD9" t="n">
-        <v>104846.750255114</v>
+        <v>122096.0815263437</v>
       </c>
       <c r="AE9" t="n">
-        <v>143455.9492111552</v>
+        <v>167057.2452432278</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.655217541609628e-06</v>
+        <v>9.628585765078386e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.604166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>129764.7147601706</v>
+        <v>151113.5362235768</v>
       </c>
     </row>
     <row r="10">
@@ -11637,28 +11637,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.9623919311943</v>
+        <v>120.2117232024241</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.8776870203476</v>
+        <v>164.4789830524202</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.4325182942391</v>
+        <v>148.7813397576453</v>
       </c>
       <c r="AD10" t="n">
-        <v>102962.3919311943</v>
+        <v>120211.7232024241</v>
       </c>
       <c r="AE10" t="n">
-        <v>140877.6870203476</v>
+        <v>164478.9830524202</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.701538490957964e-06</v>
+        <v>9.695601641078203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.570833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>127432.5182942391</v>
+        <v>148781.3397576453</v>
       </c>
     </row>
     <row r="11">
@@ -11743,28 +11743,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.3062196798077</v>
+        <v>119.5555509510374</v>
       </c>
       <c r="AB11" t="n">
-        <v>139.9798831977241</v>
+        <v>163.5811792297967</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.6203996083709</v>
+        <v>147.9692210717771</v>
       </c>
       <c r="AD11" t="n">
-        <v>102306.2196798077</v>
+        <v>119555.5509510374</v>
       </c>
       <c r="AE11" t="n">
-        <v>139979.8831977241</v>
+        <v>163581.1792297967</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.728154655504151e-06</v>
+        <v>9.734109176176511e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.554166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>126620.3996083709</v>
+        <v>147969.2210717771</v>
       </c>
     </row>
   </sheetData>
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.7333766643299</v>
+        <v>209.0208938724774</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.7603558134107</v>
+        <v>285.9916083472187</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.6372622060397</v>
+        <v>258.6969706383876</v>
       </c>
       <c r="AD2" t="n">
-        <v>184733.3766643299</v>
+        <v>209020.8938724774</v>
       </c>
       <c r="AE2" t="n">
-        <v>252760.3558134107</v>
+        <v>285991.6083472187</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607616241529045e-06</v>
+        <v>6.919186417281073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.193750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>228637.2622060397</v>
+        <v>258696.9706383876</v>
       </c>
     </row>
     <row r="3">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.508016675132</v>
+        <v>130.6997246500807</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.6749201520102</v>
+        <v>178.829129331065</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.7220856673768</v>
+        <v>161.7619282160175</v>
       </c>
       <c r="AD3" t="n">
-        <v>114508.0166751319</v>
+        <v>130699.7246500807</v>
       </c>
       <c r="AE3" t="n">
-        <v>156674.9201520102</v>
+        <v>178829.129331065</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.314771228507194e-06</v>
+        <v>9.48279479499896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.247916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>141722.0856673768</v>
+        <v>161761.9282160175</v>
       </c>
     </row>
     <row r="4">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.64798493251349</v>
+        <v>118.8500717775383</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5015485590092</v>
+        <v>162.6159115010713</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.1421025211366</v>
+        <v>147.0960771403191</v>
       </c>
       <c r="AD4" t="n">
-        <v>94647.9849325135</v>
+        <v>118850.0717775384</v>
       </c>
       <c r="AE4" t="n">
-        <v>129501.5485590092</v>
+        <v>162615.9115010712</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.894004413446851e-06</v>
+        <v>1.035262035676122e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.808333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117142.1025211366</v>
+        <v>147096.0771403191</v>
       </c>
     </row>
     <row r="5">
@@ -12358,28 +12358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.7279072027065</v>
+        <v>105.0048665236758</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4014370336947</v>
+        <v>143.6722908653988</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.8150542712177</v>
+        <v>129.9604090705706</v>
       </c>
       <c r="AD5" t="n">
-        <v>88727.9072027065</v>
+        <v>105004.8665236758</v>
       </c>
       <c r="AE5" t="n">
-        <v>121401.4370336947</v>
+        <v>143672.2908653988</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.175109889356868e-06</v>
+        <v>1.077475212485623e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.61875</v>
       </c>
       <c r="AH5" t="n">
-        <v>109815.0542712177</v>
+        <v>129960.4090705706</v>
       </c>
     </row>
     <row r="6">
@@ -12464,28 +12464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.06748684011475</v>
+        <v>104.344446161084</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.4978207579071</v>
+        <v>142.7686745896111</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.9976778645575</v>
+        <v>129.1430326639104</v>
       </c>
       <c r="AD6" t="n">
-        <v>88067.48684011475</v>
+        <v>104344.446161084</v>
       </c>
       <c r="AE6" t="n">
-        <v>120497.8207579071</v>
+        <v>142768.6745896111</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.227131106460759e-06</v>
+        <v>1.085287158618451e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.585416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>108997.6778645575</v>
+        <v>129143.0326639104</v>
       </c>
     </row>
   </sheetData>
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.336160556137</v>
+        <v>158.8254851863574</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.1729054828442</v>
+        <v>217.3120357177616</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.5002632754187</v>
+        <v>196.5720800282784</v>
       </c>
       <c r="AD2" t="n">
-        <v>135336.160556137</v>
+        <v>158825.4851863574</v>
       </c>
       <c r="AE2" t="n">
-        <v>185172.9054828442</v>
+        <v>217312.0357177616</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.532401283206381e-06</v>
+        <v>8.485302481626881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167500.2632754187</v>
+        <v>196572.0800282784</v>
       </c>
     </row>
     <row r="3">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.37592777691522</v>
+        <v>111.8651628985846</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.919843255091</v>
+        <v>153.0588510204601</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3794231269226</v>
+        <v>138.4511290985558</v>
       </c>
       <c r="AD3" t="n">
-        <v>88375.92777691522</v>
+        <v>111865.1628985846</v>
       </c>
       <c r="AE3" t="n">
-        <v>120919.843255091</v>
+        <v>153058.8510204601</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.02632363061107e-06</v>
+        <v>1.077660102504058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>109379.4231269226</v>
+        <v>138451.1290985558</v>
       </c>
     </row>
     <row r="4">
@@ -12973,28 +12973,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.52386200347071</v>
+        <v>106.0130971251401</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9127886889474</v>
+        <v>145.0517964543164</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.1365506105975</v>
+        <v>131.2082565822307</v>
       </c>
       <c r="AD4" t="n">
-        <v>82523.86200347071</v>
+        <v>106013.0971251401</v>
       </c>
       <c r="AE4" t="n">
-        <v>112912.7886889474</v>
+        <v>145051.7964543164</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.372502641562639e-06</v>
+        <v>1.130755195761864e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>102136.5506105975</v>
+        <v>131208.2565822307</v>
       </c>
     </row>
   </sheetData>
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.6416099206781</v>
+        <v>126.646390190952</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.8070230385417</v>
+        <v>173.2831783035922</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.2731597871883</v>
+        <v>156.7452749708138</v>
       </c>
       <c r="AD2" t="n">
-        <v>103641.6099206781</v>
+        <v>126646.390190952</v>
       </c>
       <c r="AE2" t="n">
-        <v>141807.0230385417</v>
+        <v>173283.1783035922</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.333286427973664e-06</v>
+        <v>9.89563511731892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.639583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128273.1597871883</v>
+        <v>156745.2749708138</v>
       </c>
     </row>
     <row r="3">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.26394572398722</v>
+        <v>101.1833851396895</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0841833011185</v>
+        <v>138.4435714439713</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.86421914048213</v>
+        <v>125.2307112921688</v>
       </c>
       <c r="AD3" t="n">
-        <v>78263.94572398721</v>
+        <v>101183.3851396895</v>
       </c>
       <c r="AE3" t="n">
-        <v>107084.1833011185</v>
+        <v>138443.5714439713</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.454404122897136e-06</v>
+        <v>1.164735940118049e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96864.21914048214</v>
+        <v>125230.7112921688</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.4990230462504</v>
+        <v>100.203699323152</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4058264643183</v>
+        <v>137.1031220890975</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.15516513161528</v>
+        <v>124.0181925423912</v>
       </c>
       <c r="AD2" t="n">
-        <v>78499.0230462504</v>
+        <v>100203.699323152</v>
       </c>
       <c r="AE2" t="n">
-        <v>107405.8264643183</v>
+        <v>137103.1220890975</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.228639282155402e-06</v>
+        <v>1.178034091288615e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.302083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97155.16513161527</v>
+        <v>124018.1925423912</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.855521435956</v>
+        <v>280.9590526468233</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.1268590423956</v>
+        <v>384.4205708699896</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.7610675830264</v>
+        <v>347.7320111238168</v>
       </c>
       <c r="AD2" t="n">
-        <v>247855.521435956</v>
+        <v>280959.0526468233</v>
       </c>
       <c r="AE2" t="n">
-        <v>339126.8590423955</v>
+        <v>384420.5708699896</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.843204368104077e-06</v>
+        <v>5.677876362239404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>306761.0675830264</v>
+        <v>347732.0111238168</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.4729095196465</v>
+        <v>158.3644964373098</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.6235232138849</v>
+        <v>216.6812905739266</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.1941904721276</v>
+        <v>196.0015323157145</v>
       </c>
       <c r="AD3" t="n">
-        <v>133472.9095196465</v>
+        <v>158364.4964373097</v>
       </c>
       <c r="AE3" t="n">
-        <v>182623.5232138849</v>
+        <v>216681.2905739266</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707028466708581e-06</v>
+        <v>8.431454308982645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.616666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165194.1904721276</v>
+        <v>196001.5323157145</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.4564310918186</v>
+        <v>134.0509118788118</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.7090708317827</v>
+        <v>183.4143715413589</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.3712226682391</v>
+        <v>165.9095613451903</v>
       </c>
       <c r="AD4" t="n">
-        <v>117456.4310918186</v>
+        <v>134050.9118788118</v>
       </c>
       <c r="AE4" t="n">
-        <v>160709.0708317827</v>
+        <v>183414.3715413589</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362205797828698e-06</v>
+        <v>9.399400721698959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.037500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>145371.2226682391</v>
+        <v>165909.5613451903</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.479373547531</v>
+        <v>126.2856196106226</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.8485558416668</v>
+        <v>172.789556079511</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.5970445473475</v>
+        <v>156.2987633589957</v>
       </c>
       <c r="AD5" t="n">
-        <v>101479.373547531</v>
+        <v>126285.6196106226</v>
       </c>
       <c r="AE5" t="n">
-        <v>138848.5558416668</v>
+        <v>172789.556079511</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.699334386951332e-06</v>
+        <v>9.897468028007424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.785416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>125597.0445473475</v>
+        <v>156298.7633589957</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.14733637758945</v>
+        <v>120.9535824406811</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.5530273528784</v>
+        <v>165.4940275907226</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.9977910581882</v>
+        <v>149.6995098698364</v>
       </c>
       <c r="AD6" t="n">
-        <v>96147.33637758945</v>
+        <v>120953.5824406811</v>
       </c>
       <c r="AE6" t="n">
-        <v>131553.0273528784</v>
+        <v>165494.0275907226</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.922291632792818e-06</v>
+        <v>1.022686078329769e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.631250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>118997.7910581882</v>
+        <v>149699.5098698364</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.51498362474048</v>
+        <v>110.1947157577543</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.9513261852249</v>
+        <v>150.7732715474504</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.7398311949551</v>
+        <v>136.3836821226185</v>
       </c>
       <c r="AD7" t="n">
-        <v>93514.98362474047</v>
+        <v>110194.7157577543</v>
       </c>
       <c r="AE7" t="n">
-        <v>127951.3261852249</v>
+        <v>150773.2715474504</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.0206143933813e-06</v>
+        <v>1.037212094246296e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.566666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>115739.8311949551</v>
+        <v>136383.6821226185</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.82760281152598</v>
+        <v>110.5073349445398</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.3790655483698</v>
+        <v>151.2010109105953</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.1267477136175</v>
+        <v>136.770598641281</v>
       </c>
       <c r="AD8" t="n">
-        <v>93827.60281152598</v>
+        <v>110507.3349445398</v>
       </c>
       <c r="AE8" t="n">
-        <v>128379.0655483698</v>
+        <v>151201.0109105953</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.012767036902406e-06</v>
+        <v>1.036052740863287e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.570833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>116126.7477136175</v>
+        <v>136770.598641281</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.0558843235107</v>
+        <v>418.6155471810234</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.536251346152</v>
+        <v>572.7682596676117</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.4296336738388</v>
+        <v>518.1040608502354</v>
       </c>
       <c r="AD2" t="n">
-        <v>376055.8843235107</v>
+        <v>418615.5471810234</v>
       </c>
       <c r="AE2" t="n">
-        <v>514536.2513461519</v>
+        <v>572768.2596676117</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984009680098946e-06</v>
+        <v>4.333286399776141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>465429.6336738388</v>
+        <v>518104.0608502354</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.9329305693344</v>
+        <v>194.4346277454335</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.1414883997635</v>
+        <v>266.0340355315617</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.0816691560732</v>
+        <v>240.6441205616212</v>
       </c>
       <c r="AD3" t="n">
-        <v>168932.9305693344</v>
+        <v>194434.6277454335</v>
       </c>
       <c r="AE3" t="n">
-        <v>231141.4883997635</v>
+        <v>266034.0355315617</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.046349587701243e-06</v>
+        <v>7.328152513290988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.120833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>209081.6691560732</v>
+        <v>240644.1205616212</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.9337219754023</v>
+        <v>162.3500782969297</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.3587594961175</v>
+        <v>222.134539505718</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.4775024495312</v>
+        <v>200.9343308231404</v>
       </c>
       <c r="AD4" t="n">
-        <v>136933.7219754023</v>
+        <v>162350.0782969297</v>
       </c>
       <c r="AE4" t="n">
-        <v>187358.7594961175</v>
+        <v>222134.539505718</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762808458470839e-06</v>
+        <v>8.368571886395004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.360416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>169477.5024495312</v>
+        <v>200934.3308231404</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.4215820475398</v>
+        <v>143.4796372375039</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.9755858839404</v>
+        <v>196.3151695431204</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.4670387399848</v>
+        <v>177.5791252920515</v>
       </c>
       <c r="AD5" t="n">
-        <v>126421.5820475398</v>
+        <v>143479.6372375039</v>
       </c>
       <c r="AE5" t="n">
-        <v>172975.5858839404</v>
+        <v>196315.1695431204</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.161368360091011e-06</v>
+        <v>8.947348226399887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.014583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>156467.0387399849</v>
+        <v>177579.1252920515</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.4139444785995</v>
+        <v>137.9155521461475</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.8097181887707</v>
+        <v>188.7021428510205</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.1303345581718</v>
+        <v>170.6926751824932</v>
       </c>
       <c r="AD6" t="n">
-        <v>112413.9444785995</v>
+        <v>137915.5521461475</v>
       </c>
       <c r="AE6" t="n">
-        <v>153809.7181887707</v>
+        <v>188702.1428510205</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.371472296324562e-06</v>
+        <v>9.252454652659902e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.847916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>139130.3345581718</v>
+        <v>170692.6751824932</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.8754790531145</v>
+        <v>133.3770867206625</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.5999895706617</v>
+        <v>182.4924142329115</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.5132537239643</v>
+        <v>165.0755943482856</v>
       </c>
       <c r="AD7" t="n">
-        <v>107875.4790531145</v>
+        <v>133377.0867206625</v>
       </c>
       <c r="AE7" t="n">
-        <v>147599.9895706617</v>
+        <v>182492.4142329115</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.536945826907936e-06</v>
+        <v>9.492750186679785e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.725000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>133513.2537239643</v>
+        <v>165075.5943482856</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.5534343346435</v>
+        <v>130.0550420021914</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.0546214285825</v>
+        <v>177.9470460908323</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.4016891378994</v>
+        <v>160.9640297622208</v>
       </c>
       <c r="AD8" t="n">
-        <v>104553.4343346435</v>
+        <v>130055.0420021914</v>
       </c>
       <c r="AE8" t="n">
-        <v>143054.6214285825</v>
+        <v>177947.0460908323</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.654823476382652e-06</v>
+        <v>9.663928456882122e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.641666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>129401.6891378994</v>
+        <v>160964.0297622208</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.4118190461002</v>
+        <v>118.5551255820849</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.7561247925151</v>
+        <v>162.2123531043443</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.5134349877989</v>
+        <v>146.7310337905779</v>
       </c>
       <c r="AD9" t="n">
-        <v>101411.8190461003</v>
+        <v>118555.1255820849</v>
       </c>
       <c r="AE9" t="n">
-        <v>138756.1247925151</v>
+        <v>162212.3531043443</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.757280653473254e-06</v>
+        <v>9.812713594881888e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.570833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>125513.4349877989</v>
+        <v>146731.0337905779</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.7155153528333</v>
+        <v>117.8588218888179</v>
       </c>
       <c r="AB10" t="n">
-        <v>137.8034113606367</v>
+        <v>161.259639672466</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.6516471887171</v>
+        <v>145.869245991496</v>
       </c>
       <c r="AD10" t="n">
-        <v>100715.5153528333</v>
+        <v>117858.8218888179</v>
       </c>
       <c r="AE10" t="n">
-        <v>137803.4113606367</v>
+        <v>161259.639672466</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.775814875088776e-06</v>
+        <v>9.839628417240747e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.558333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>124651.6471887171</v>
+        <v>145869.245991496</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.9148471897382</v>
+        <v>97.26183910052123</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.8700430516474</v>
+        <v>133.0779391467829</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.95683192534538</v>
+        <v>120.3771674107101</v>
       </c>
       <c r="AD2" t="n">
-        <v>75914.8471897382</v>
+        <v>97261.83910052123</v>
       </c>
       <c r="AE2" t="n">
-        <v>103870.0430516474</v>
+        <v>133077.9391467829</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.727561610526832e-06</v>
+        <v>1.121444438307383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>93956.83192534538</v>
+        <v>120377.1674107101</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6328157590067</v>
+        <v>171.5457795410256</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9977316215425</v>
+        <v>234.7165036335908</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.7193516212369</v>
+        <v>212.3154899535505</v>
       </c>
       <c r="AD2" t="n">
-        <v>147632.8157590067</v>
+        <v>171545.7795410256</v>
       </c>
       <c r="AE2" t="n">
-        <v>201997.7316215425</v>
+        <v>234716.5036335908</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.211548051103288e-06</v>
+        <v>7.931489488395657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.527083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182719.3516212369</v>
+        <v>212315.4899535505</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.4134308439519</v>
+        <v>118.2986023041345</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.1265742423288</v>
+        <v>161.8613666384443</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.7530906655609</v>
+        <v>146.4135449803707</v>
       </c>
       <c r="AD3" t="n">
-        <v>102413.4308439519</v>
+        <v>118298.6023041345</v>
       </c>
       <c r="AE3" t="n">
-        <v>140126.5742423288</v>
+        <v>161861.3666384443</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.774000008017378e-06</v>
+        <v>1.030939546774546e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.022916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>126753.0906655609</v>
+        <v>146413.5449803707</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.21147129867205</v>
+        <v>108.9537533715477</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.5900942955939</v>
+        <v>149.0753320632469</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.4628993312777</v>
+        <v>134.8477915997138</v>
       </c>
       <c r="AD4" t="n">
-        <v>85211.47129867206</v>
+        <v>108953.7533715477</v>
       </c>
       <c r="AE4" t="n">
-        <v>116590.0942955939</v>
+        <v>149075.3320632469</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.282678712635625e-06</v>
+        <v>1.108355695663286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.670833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>105462.8993312777</v>
+        <v>134847.7915997138</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.34649457635844</v>
+        <v>108.0887766492341</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.4065949840453</v>
+        <v>147.8918327516982</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.3923515329712</v>
+        <v>133.7772438014072</v>
       </c>
       <c r="AD5" t="n">
-        <v>84346.49457635844</v>
+        <v>108088.7766492341</v>
       </c>
       <c r="AE5" t="n">
-        <v>115406.5949840453</v>
+        <v>147891.8327516982</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.340976721479514e-06</v>
+        <v>1.117228108232557e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.633333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>104392.3515329712</v>
+        <v>133777.2438014072</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.1348483114002</v>
+        <v>233.7997329235245</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.2015729027822</v>
+        <v>319.8951091020715</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9367210328548</v>
+        <v>289.3647688650702</v>
       </c>
       <c r="AD2" t="n">
-        <v>201134.8483114002</v>
+        <v>233799.7329235245</v>
       </c>
       <c r="AE2" t="n">
-        <v>275201.5729027822</v>
+        <v>319895.1091020715</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.339187965009275e-06</v>
+        <v>6.478020116331097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.547916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>248936.7210328548</v>
+        <v>289364.7688650702</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.0657544214191</v>
+        <v>145.3938256799201</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.6475062434468</v>
+        <v>198.9342466180669</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.8383407353532</v>
+        <v>179.9482413268638</v>
       </c>
       <c r="AD3" t="n">
-        <v>121065.7544214191</v>
+        <v>145393.8256799201</v>
       </c>
       <c r="AE3" t="n">
-        <v>165647.5062434468</v>
+        <v>198934.2466180669</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.086560516301463e-06</v>
+        <v>9.086691284594579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.381249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>149838.3407353532</v>
+        <v>179948.2413268638</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.691444011293</v>
+        <v>124.1047666158146</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.402231772303</v>
+        <v>169.8056167995724</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.3841942137256</v>
+        <v>153.5996070559484</v>
       </c>
       <c r="AD4" t="n">
-        <v>99691.444011293</v>
+        <v>124104.7666158146</v>
       </c>
       <c r="AE4" t="n">
-        <v>136402.231772303</v>
+        <v>169805.6167995724</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.694697733180911e-06</v>
+        <v>9.994585839106287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.891666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>123384.1942137256</v>
+        <v>153599.6070559483</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.96477777074611</v>
+        <v>117.3781003752677</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.1985102624211</v>
+        <v>160.6018952896904</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.0588629672396</v>
+        <v>145.2742758094624</v>
       </c>
       <c r="AD5" t="n">
-        <v>92964.77777074611</v>
+        <v>117378.1003752677</v>
       </c>
       <c r="AE5" t="n">
-        <v>127198.5102624211</v>
+        <v>160601.8952896904</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.013388048231231e-06</v>
+        <v>1.047036201852595e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.670833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>115058.8629672396</v>
+        <v>145274.2758094624</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.91622779211778</v>
+        <v>106.3340109527516</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.0273496891308</v>
+        <v>145.4908849109731</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.2857921048022</v>
+        <v>131.6054390528487</v>
       </c>
       <c r="AD6" t="n">
-        <v>89916.22779211777</v>
+        <v>106334.0109527516</v>
       </c>
       <c r="AE6" t="n">
-        <v>123027.3496891308</v>
+        <v>145490.8849109731</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.148599528716321e-06</v>
+        <v>1.067222068369659e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.58125</v>
       </c>
       <c r="AH6" t="n">
-        <v>111285.7921048022</v>
+        <v>131605.4390528487</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.18099741914871</v>
+        <v>106.5987805797825</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.3896191736459</v>
+        <v>145.8531543954882</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.6134870981637</v>
+        <v>131.9331340462102</v>
       </c>
       <c r="AD7" t="n">
-        <v>90180.99741914871</v>
+        <v>106598.7805797825</v>
       </c>
       <c r="AE7" t="n">
-        <v>123389.6191736459</v>
+        <v>145853.1543954882</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.149542864626681e-06</v>
+        <v>1.067362899996523e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.58125</v>
       </c>
       <c r="AH7" t="n">
-        <v>111613.4870981637</v>
+        <v>131933.1340462102</v>
       </c>
     </row>
   </sheetData>
